--- a/samples/cash ledger excel 2020-02.xlsx
+++ b/samples/cash ledger excel 2020-02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangst\git\geneva\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AC8576-60D6-4AEE-901D-1F2FE9620C3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837B03A1-3E1C-4895-8E92-4007C6C32820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="656">
   <si>
     <t>Currency_OpeningBalDesc</t>
   </si>
@@ -2000,6 +2000,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>mature only</t>
   </si>
 </sst>
 </file>
@@ -11305,11 +11308,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BCCE8E-4337-4142-864A-B7C9BA82151E}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:U131"/>
+  <dimension ref="A1:U132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="N129" sqref="N129"/>
+    <sheetView tabSelected="1" topLeftCell="B112" workbookViewId="0">
+      <selection activeCell="M132" sqref="M132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11318,6 +11320,7 @@
     <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -11387,7 +11390,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -11440,7 +11443,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -11493,7 +11496,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -11546,7 +11549,7 @@
         <v>25.84</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -11715,7 +11718,7 @@
         <v>2912876.7123287669</v>
       </c>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -11768,7 +11771,7 @@
         <v>-4982529.75</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -11821,7 +11824,7 @@
         <v>-3986023.8</v>
       </c>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -11874,7 +11877,7 @@
         <v>-39860238</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -11927,7 +11930,7 @@
         <v>5983561.5999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -12096,7 +12099,7 @@
         <v>111717.12328767123</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -12149,7 +12152,7 @@
         <v>18.41</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -12202,7 +12205,7 @@
         <v>106.8</v>
       </c>
     </row>
-    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -12255,7 +12258,7 @@
         <v>215.07</v>
       </c>
     </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -12308,7 +12311,7 @@
         <v>145.71</v>
       </c>
     </row>
-    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -12419,7 +12422,7 @@
         <v>6328843.8356164386</v>
       </c>
     </row>
-    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -12472,7 +12475,7 @@
         <v>-255928136.05000001</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -12525,7 +12528,7 @@
         <v>-52136242</v>
       </c>
     </row>
-    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -12578,7 +12581,7 @@
         <v>-211874415.55000001</v>
       </c>
     </row>
-    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -12689,7 +12692,7 @@
         <v>1015248.0410958905</v>
       </c>
     </row>
-    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -12742,7 +12745,7 @@
         <v>-162190899.44999999</v>
       </c>
     </row>
-    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -12795,7 +12798,7 @@
         <v>-775852.2</v>
       </c>
     </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -13138,7 +13141,7 @@
         <v>156436.19178082192</v>
       </c>
     </row>
-    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -13191,7 +13194,7 @@
         <v>-58093622.020000003</v>
       </c>
     </row>
-    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -13882,7 +13885,7 @@
         <v>12300601.111232879</v>
       </c>
     </row>
-    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -13935,7 +13938,7 @@
         <v>-248437797.59999999</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -13988,7 +13991,7 @@
         <v>-566762484.76999998</v>
       </c>
     </row>
-    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -14041,7 +14044,7 @@
         <v>-194094268.38999999</v>
       </c>
     </row>
-    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -14094,7 +14097,7 @@
         <v>-5177899.08</v>
       </c>
     </row>
-    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -14669,7 +14672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -14722,7 +14725,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -14775,7 +14778,7 @@
         <v>286.89999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -14828,7 +14831,7 @@
         <v>3442.86</v>
       </c>
     </row>
-    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>30</v>
       </c>
@@ -14881,7 +14884,7 @@
         <v>13.62</v>
       </c>
     </row>
-    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -14934,7 +14937,7 @@
         <v>25.85</v>
       </c>
     </row>
-    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>30</v>
       </c>
@@ -15103,7 +15106,7 @@
         <v>6296712.3287671236</v>
       </c>
     </row>
-    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>40</v>
       </c>
@@ -15156,7 +15159,7 @@
         <v>35.520000000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>40</v>
       </c>
@@ -15209,7 +15212,7 @@
         <v>133.75</v>
       </c>
     </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>40</v>
       </c>
@@ -15262,7 +15265,7 @@
         <v>185.4</v>
       </c>
     </row>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -15315,7 +15318,7 @@
         <v>383.65</v>
       </c>
     </row>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>40</v>
       </c>
@@ -15487,7 +15490,7 @@
         <v>13219133.424657535</v>
       </c>
     </row>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -15540,7 +15543,7 @@
         <v>-53995388.969999999</v>
       </c>
     </row>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>40</v>
       </c>
@@ -15654,7 +15657,7 @@
         <v>2301655.8653150685</v>
       </c>
     </row>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>40</v>
       </c>
@@ -15707,7 +15710,7 @@
         <v>-16170364.91</v>
       </c>
     </row>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>40</v>
       </c>
@@ -16053,7 +16056,7 @@
         <v>12264065.753424658</v>
       </c>
     </row>
-    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>40</v>
       </c>
@@ -16106,7 +16109,7 @@
         <v>-113252741</v>
       </c>
     </row>
-    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>40</v>
       </c>
@@ -16159,7 +16162,7 @@
         <v>-54377480.380000003</v>
       </c>
     </row>
-    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>40</v>
       </c>
@@ -16618,7 +16621,7 @@
         <v>91062491.013698637</v>
       </c>
     </row>
-    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>40</v>
       </c>
@@ -16903,7 +16906,7 @@
         <v>1643749.7128767124</v>
       </c>
     </row>
-    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>40</v>
       </c>
@@ -16956,7 +16959,7 @@
         <v>-67019614.539999999</v>
       </c>
     </row>
-    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>40</v>
       </c>
@@ -17009,7 +17012,7 @@
         <v>-108541271.39</v>
       </c>
     </row>
-    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>40</v>
       </c>
@@ -17413,7 +17416,7 @@
         <v>1052012.7464657533</v>
       </c>
     </row>
-    <row r="110" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>40</v>
       </c>
@@ -17524,7 +17527,7 @@
         <v>1116421.6895890411</v>
       </c>
     </row>
-    <row r="112" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>40</v>
       </c>
@@ -17577,7 +17580,7 @@
         <v>-71544582.920000002</v>
       </c>
     </row>
-    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>40</v>
       </c>
@@ -17630,7 +17633,7 @@
         <v>-1356125211.1900001</v>
       </c>
     </row>
-    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>40</v>
       </c>
@@ -17683,7 +17686,7 @@
         <v>-651634870.17999995</v>
       </c>
     </row>
-    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>40</v>
       </c>
@@ -17736,7 +17739,7 @@
         <v>-252693044.12</v>
       </c>
     </row>
-    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>40</v>
       </c>
@@ -18376,8 +18379,11 @@
       <c r="J128" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="129" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="M128" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="129" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F129" t="s">
         <v>651</v>
       </c>
@@ -18392,26 +18398,28 @@
         <f>SUM(U74:U107)</f>
         <v>195679014.28254795</v>
       </c>
-    </row>
-    <row r="131" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="G131" t="s">
-        <v>654</v>
-      </c>
-      <c r="H131" s="5">
+      <c r="M129" s="5">
         <f>H129+J129</f>
         <v>668166522.93835628</v>
       </c>
     </row>
+    <row r="131" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="H131" s="5" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="132" spans="6:13" x14ac:dyDescent="0.3">
+      <c r="H132">
+        <f>S7+S37+S39+S45+S46+S68+S91+S93+S94+S95+S123+S126</f>
+        <v>361056445.05753428</v>
+      </c>
+      <c r="M132" s="5">
+        <f>H132+J129</f>
+        <v>556735459.34008217</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:U126" xr:uid="{9B9B2614-8715-40A2-AD7F-C901C863CE50}">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="Deposit"/>
-        <filter val="Interest"/>
-        <filter val="Mature"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:U126" xr:uid="{9B9B2614-8715-40A2-AD7F-C901C863CE50}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>